--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6749720208.657568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003021063810869405</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.02884489599299781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.117816896114046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.5259880951994621</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-4.117816896114046</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5913943967.660705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005131510374929181</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.265633399639531</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9324504403336921</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.265633399639531</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4284428130.407454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003328530320841077</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.248461926673425</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9444513749026814</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.248461926673425</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4426550806.54009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003651522197668803</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8788477055176573</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.534637141898586</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.026025700448884</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.534637141898586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5473874540.426323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00189808265575939</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.996248856405562</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.218001814219267</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.154706461188144</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.218001814219267</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6320722995.173752</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001067151050220579</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.023922176066983</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6818463224.100375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00219600244461099</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.199880619851234</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9335478093780701</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.199880619851234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4516591305.578425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005308101266283424</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.275136729101049</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9343111350530081</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.275136729101049</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4004403369.434336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005718477529813911</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.262196275661216</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9605746875162923</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.262196275661216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5181371103.663473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001271435719940231</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.299088599087352</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7718130860176751</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-4.299088599087352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5725860154.941469</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00201122275974462</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.383559038198876</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9847845301218218</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.383559038198876</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4316934115.670892</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004000259950880307</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.322314937781899</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.012773454494405</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.322314937781899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9192954531.58736</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003202378158714384</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9304857409963928</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.282159604223454</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.200053630274289</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-5.282159604223454</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6530070278.358354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005091485019342945</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1047995570357554</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.551894054389139</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2138804639284531</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-5.551894054389139</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5861300683.660521</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004903815138332939</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.42296263084392</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8656050447261813</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.42296263084392</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4461496482.402824</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003012134834922004</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.210522725691216</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.934643889998052</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.210522725691216</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5915550538.252249</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001020788525996862</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.35927622609687</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9666271041963159</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.35927622609687</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3821097793.041707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001564689954224848</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9852062027892418</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.360068486204736</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.248767929846782</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.360068486204736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5449459808.239458</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001199264081376342</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.228482457412485</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8152882631736952</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.228482457412485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6084680522.253441</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004995806482837756</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3491366383900079</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.519789650631137</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.83673625729323</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.519789650631137</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5469093207.166547</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003534220683019786</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.510886864082403</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8824645126822784</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.510886864082403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8174965963.798954</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001643196152078592</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.226595362142545</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9135935176569746</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.226595362142545</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7180869566.142116</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004259434335082296</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.071799127509678</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5936989406.889357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003684811886593046</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.414298442057874</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8820089202954664</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.414298442057874</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5258196718.05615</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001079003000214291</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.122934217345626</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.856922615185341</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-5.122934217345626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7459799489.800738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.004053890833307549</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.315345312793342</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9476979823255174</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-5.315345312793342</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8160746304.348394</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004025948581972364</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.822002522654579</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8160507092834862</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.822002522654579</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5455447255.958803</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001233700299664339</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.396519550058811</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9795724205931746</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.396519550058811</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6442444086.106768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004193065343437862</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.161438986877114</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9068445198644924</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.161438986877114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6586480733.028981</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002433374940318389</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.427253610473541</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9415238910584924</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.427253610473541</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4876287112.000467</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009235036808581947</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.578379267055278</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9433666894900774</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.578379267055278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6780915465.267998</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002770504261457305</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.501171886969633</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8882466210034557</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-7.501171886969633</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>8096567302.936628</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005540513060172527</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8680722593907462</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4987782565.799217</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002371381721866356</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.401011355217479</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9792549326708144</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.401011355217479</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7663163167.012495</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003850869238580326</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2417168810056941</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.410486841882002</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.3228087286832717</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.410486841882002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4550159182.548844</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003705367146995481</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.580440191847147</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.070177506923484</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-7.580440191847147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4640423227.510704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003775824386581848</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.272139498632194</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8726730348486752</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.272139498632194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4984279883.049305</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002279858416217276</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.601587159896074</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9087576445971752</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.601587159896074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5343971218.269097</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003917289586998075</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.597399991634865</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03417378318606</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.597399991634865</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4785460321.829105</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001238167748092656</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9604140307952541</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.31228042285807</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.255443847327349</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.31228042285807</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6804416720.953984</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00486123479842074</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.189076792328605</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9889344395012473</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.189076792328605</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5208275303.184484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004828683186550851</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9826450487653774</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.410940012451235</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.28126731680101</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.410940012451235</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7252244632.502109</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001850063206334949</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.47411661803118</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9195180602424189</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.47411661803118</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5345196825.981964</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001336896490245425</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.574104003628031</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9627040603057707</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.574104003628031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10772586253.46661</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005175081808024234</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9361681315285116</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8098854411.844058</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002603412264745894</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9955306818933436</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6189034526.377091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002724768803439618</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.455114911704091</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9761132910742634</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.455114911704091</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4825135530.037954</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004393030421218515</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.545999574470256</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7511166542847211</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.545999574470256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7140959736.253241</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003402096740720701</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.1312301679972482</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.364179405497634</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.3189293458902204</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.364179405497634</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3974840357.726024</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004584831142798912</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.1005723267101464</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>4.421730650406761</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-0.2207533117232397</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-4.421730650406761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6321310740.258554</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00191239906553932</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.223920938438778</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8616885303173488</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-5.223920938438778</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6914843926.510723</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00253932162719667</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.306343457017026</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.295083756310246</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-5.306343457017026</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4739360231.925428</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00451139430944811</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8690287490019604</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.71521914559152</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.056629460132191</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.71521914559152</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7923133332.226291</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003009250903458686</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.282379936623157</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9269441084002911</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-5.282379936623157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4071305860.420988</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002611184040020686</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.442799266097866</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9623810075549946</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.442799266097866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8123290139.245234</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004093390862058724</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.778108754472511</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.311451577392734</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9811804191351853</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.311451577392734</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6236274792.368906</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001765321770887551</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8305157179592564</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.265772346845783</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9593047186925604</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.265772346845783</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5140085776.225927</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002829072884432033</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.316287082995545</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8560902894710563</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.316287082995545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5022135412.557774</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003880374199823049</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.169367682812979</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8509276848449567</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-5.169367682812979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5574210694.891491</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004493934187575853</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.467060453344402</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8892962227537052</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.467060453344402</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5672614365.70232</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003377290100430363</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7.988364839352506</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9321169023528358</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-7.988364839352506</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8400380951.060211</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004621139766164903</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.369301858997131</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9834281763425887</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-7.369301858997131</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4168869698.205312</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005325447052496038</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.366548228134906</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9386842131134565</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.366548228134906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4738116161.113273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004179231418403082</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.857680259255336</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.058634796203014</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-7.857680259255336</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5081721000.428153</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003518185795413965</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.450178932614173</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.7672994806052191</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.450178932614173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6254524709.715366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003661667043012012</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.495168967636315</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9221782480664851</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.495168967636315</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8079142973.962437</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002796427922340183</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.158049797782971</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7634051371486139</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.158049797782971</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5643871571.600314</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001002244921435851</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.364167581585141</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9648287335902737</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.364167581585141</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7021477930.216566</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00324184085503293</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.223782917941818</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9299174921570471</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.223782917941818</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4780229882.707743</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002827359733710955</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.360195408265089</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8481513092466187</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.360195408265089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7475600399.918653</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002045460640265007</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.3688766053703585</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.403998417504036</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.8757197605727501</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.403998417504036</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7470550558.428258</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001090795002297411</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.388469761630314</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9937846171004467</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.388469761630314</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6184628121.296504</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004251554942612461</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.343244056711977</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9299174921570471</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.343244056711977</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7548698096.916471</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004250020883968713</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.878307919647268</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.7866650619239717</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.878307919647268</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5115171778.691297</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002249207049439411</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.44318667758302</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9026616931999072</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.44318667758302</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7455631567.513691</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004857473481355588</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.3309034590193</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.97012005893183</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.3309034590193</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6364405092.59064</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005046883051404943</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.327954870943093</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.934643889998052</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.327954870943093</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7578371044.156444</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002071556666635925</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.277115284727292</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.8992525041512155</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.277115284727292</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5016160925.493658</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002694802232114998</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.651183505574144</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9491053990187833</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.651183505574144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6315074210.915414</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004760010745149711</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.3332651457708</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9958429809049597</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.3332651457708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8363346330.209728</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004372626652635693</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.486199940000729</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9613165529556169</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-7.486199940000729</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9697183874.138359</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003648705963217229</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.221408191643002</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8793306852498267</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-5.221408191643002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5167268172.19574</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004233745143312973</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.07802964316459172</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.327214756843888</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-0.3054080599532403</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.327214756843888</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4962602700.894381</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003056571793836288</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.294560074799506</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.294560074799506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6191393280.588765</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001808691554947745</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.554921018326954</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.004343893481263</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.554921018326954</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4662423368.902708</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00104685625685322</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.780279937047331</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.929819641427038</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.780279937047331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7634586921.991652</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004874773652194442</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.224686930142584</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.856922615185341</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-5.224686930142584</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7781269775.528669</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003995134874939888</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.900724476746732</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8600322981734924</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.900724476746732</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6923861569.043385</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002624866529635267</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.220739378371539</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9498562223494939</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-5.220739378371539</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7624532027.360724</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003826574837016464</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.274364723699016</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8505621792725961</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.274364723699016</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5035253526.050018</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002780608014705763</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.868803750283981</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9601561589836448</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.868803750283981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5840190279.683613</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001197305365787584</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.308572662255256</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9411935685114267</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-5.308572662255256</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7499658863.233956</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009777954452514952</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.081309510219659</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6036548582.122155</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002663173334850912</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.287966410137721</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.870323415932148</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.287966410137721</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9410318600.548668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002198537111386656</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.01533646532534185</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.404800471210439</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.4691415486292498</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-4.404800471210439</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6818964954.054002</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004232083366502137</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9130868812063685</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.432418954720701</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.193082581589493</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.432418954720701</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6635020099.193908</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004534428457915698</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.170653012241129</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8206750946384442</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-4.170653012241129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2554662008.158642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005528305275520402</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.012863291251429</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6059103748.544099</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.0025211716479558</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.285768024843127</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7784175507583401</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.285768024843127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6991964137.901676</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001070533234266827</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5596997115255857</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.638649011189151</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8632361878554559</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.638649011189151</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6749720208.657568</v>
+        <v>1603378774.777783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003021063810869405</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.09483257757498598</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03570707038153319</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>801689329.378951</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5913943967.660705</v>
+        <v>1896996241.419264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005131510374929181</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1392606616078087</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04940195279314502</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>948498144.4922563</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4284428130.407454</v>
+        <v>4558013479.24861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003328530320841077</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>0.1298748652229695</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03491943805582669</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2279006792.97188</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4426550806.54009</v>
+        <v>3830639027.452237</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003651522197668803</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08310245474665558</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04934045068315453</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1915319528.311044</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5473874540.426323</v>
+        <v>2542890131.86571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00189808265575939</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+        <v>0.1294625327536373</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04115102728178113</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1271445036.343918</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6320722995.173752</v>
+        <v>2180147926.806324</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001067151050220579</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>0.09804511020438571</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03042971001708492</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1090074006.893441</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6818463224.100375</v>
+        <v>3443292081.885138</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00219600244461099</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.1421347267391978</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03267415069420538</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1721646143.424721</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4516591305.578425</v>
+        <v>1827305935.457847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005308101266283424</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+        <v>0.1333622894289653</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02290188061968475</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>913653017.9334882</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4004403369.434336</v>
+        <v>5791451533.116531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005718477529813911</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1742547264153425</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0424097657041473</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2895725926.751644</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3993552573.987937</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1596252280240804</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03783515978005541</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5181371103.663473</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001271435719940231</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v>1996776298.883898</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5725860154.941469</v>
+        <v>2671005508.6939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00201122275974462</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>0.1972249361576117</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04072309028579109</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1335502741.878803</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4316934115.670892</v>
+        <v>4754040390.284778</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004000259950880307</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.09075503189801319</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02302483438126577</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2377020211.357102</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9192954531.58736</v>
+        <v>3296898479.740212</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003202378158714384</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>0.1373848005671025</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03687153297837786</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1648449252.437287</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6530070278.358354</v>
+        <v>1331356525.563205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005091485019342945</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
+        <v>0.07849647760077756</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04577357990046694</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>665678309.6731598</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5861300683.660521</v>
+        <v>2074384424.491796</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004903815138332939</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
+        <v>0.09077810654552777</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0464162124803234</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1037192280.769713</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4833920779.419441</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1393030457122213</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03986315626119863</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4461496482.402824</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.003012134834922004</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+      <c r="J17" t="n">
+        <v>2416960382.678185</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5915550538.252249</v>
+        <v>3756469114.778677</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001020788525996862</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
+        <v>0.1544468362215315</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02715523879174963</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1878234532.498572</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3821097793.041707</v>
+        <v>1372571096.265078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001564689954224848</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1627807904609493</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02714295284477663</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>686285667.6066567</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5449459808.239458</v>
+        <v>2010388755.208646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001199264081376342</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1462132250449776</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02759143160243471</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1005194402.501823</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6084680522.253441</v>
+        <v>2188813635.096137</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004995806482837756</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+        <v>0.08222924843534965</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04393558906814298</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1094406835.110416</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5469093207.166547</v>
+        <v>3391353153.349582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003534220683019786</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1230370646966039</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0561366905237822</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1695676614.416786</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8174965963.798954</v>
+        <v>1122824848.859261</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001643196152078592</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>0.1538679645742093</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03570174430454472</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>561412473.5601164</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2946402517.921187</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1175284843448891</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02818139910443558</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="D24" t="n">
-        <v>513</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7180869566.142116</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.004259434335082296</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
+      <c r="J24" t="n">
+        <v>1473201297.487202</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5936989406.889357</v>
+        <v>1118656759.376884</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003684811886593046</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.09659049457102452</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0215887691785604</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>559328416.0198276</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5258196718.05615</v>
+        <v>1194678474.292903</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001079003000214291</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0823146391451182</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03910744193633737</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>597339256.4988288</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7459799489.800738</v>
+        <v>3768068254.222923</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004053890833307549</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
+        <v>0.1213149680045202</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02717170031817755</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1884034148.431445</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8160746304.348394</v>
+        <v>3089353767.3108</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004025948581972364</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
+        <v>0.0917581829220301</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04981821742424768</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1544676902.274833</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5455447255.958803</v>
+        <v>5121703206.602711</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001233700299664339</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+        <v>0.1062115172479</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0354126859662985</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2560851541.808782</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6442444086.106768</v>
+        <v>2408755831.214661</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004193065343437862</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
+        <v>0.08592401850144836</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03887181962951828</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1204377999.168819</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6586480733.028981</v>
+        <v>1292462481.097591</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002433374940318389</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+        <v>0.07971679839614731</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0419990002500551</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>646231169.8850836</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4876287112.000467</v>
+        <v>1585639585.511913</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009235036808581947</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09017384673270031</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03390549782228555</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>792819878.4226196</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>488</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2969955347.029995</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2076159207108567</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03896991847337761</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>470</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6780915465.267998</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.002770504261457305</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1484977671.302868</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>8096567302.936628</v>
+        <v>1155741831.271542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005540513060172527</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
+        <v>0.09394489437569097</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02049762368051838</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>577870927.6527853</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4987782565.799217</v>
+        <v>1006264774.446262</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002371381721866356</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
+        <v>0.07166732739006632</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02730524665623897</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>503132404.0886991</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7663163167.012495</v>
+        <v>2085181852.026223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003850869238580326</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
+        <v>0.1680712471110599</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02135173360144489</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1042590980.869155</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4550159182.548844</v>
+        <v>1873785580.807775</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003705367146995481</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
+        <v>0.08101184823943756</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02821682023472833</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>936892799.9977956</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4640423227.510704</v>
+        <v>1623355902.385288</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003775824386581848</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07465821861478507</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03969728093477413</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>811677982.6998378</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4984279883.049305</v>
+        <v>1609049565.079495</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002279858416217276</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.148514000976719</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02033829017633065</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>804524835.9915051</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5343971218.269097</v>
+        <v>1202870663.591763</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003917289586998075</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
+        <v>0.1077933894971604</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04754688707961063</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>601435372.0448272</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4785460321.829105</v>
+        <v>2339933562.740276</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001238167748092656</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1267345779401482</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04055860183144504</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1169966821.970068</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6804416720.953984</v>
+        <v>3266474491.171241</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00486123479842074</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
+        <v>0.1081270858756011</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03513756296782939</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1633237223.958312</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2851360772.081284</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1837373288394274</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01601439274697509</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5208275303.184484</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.004828683186550851</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1425680399.04094</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7252244632.502109</v>
+        <v>1569033629.364451</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001850063206334949</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
+        <v>0.06946950236382665</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02837436391358972</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>784516834.752074</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5345196825.981964</v>
+        <v>2290221287.679531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001336896490245425</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.161030660367768</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03921396243302761</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1145110663.625799</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10772586253.46661</v>
+        <v>3567500168.959927</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005175081808024234</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1487441824812899</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04527830272432141</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1783750028.897993</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>456</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5118161255.877988</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1360242899616186</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05220977290054253</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>3</v>
       </c>
-      <c r="D47" t="n">
-        <v>368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>8098854411.844058</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.002603412264745894</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+      <c r="J47" t="n">
+        <v>2559080690.161475</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6189034526.377091</v>
+        <v>4141897256.518621</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002724768803439618</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
+        <v>0.1016863268621411</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02689519639372391</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2070948654.021531</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4825135530.037954</v>
+        <v>1441092815.867553</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004393030421218515</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1664725452047282</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03075173650192154</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>720546448.7562723</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7140959736.253241</v>
+        <v>3516726367.314534</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003402096740720701</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
+        <v>0.1729786577834048</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05091308585194516</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1758363206.254662</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3974840357.726024</v>
+        <v>1360935532.868728</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004584831142798912</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1361925764553542</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0348876013174315</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>680467791.5798053</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6321310740.258554</v>
+        <v>5178615774.233119</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00191239906553932</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
+        <v>0.1098474897157026</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0617958251402922</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2589307873.813743</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6914843926.510723</v>
+        <v>2466260892.586303</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00253932162719667</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1792407126555002</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02568056205174761</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1233130515.223881</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4739360231.925428</v>
+        <v>3671968260.141297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00451139430944811</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1613954155327109</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03770080262988324</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1835984168.036853</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7923133332.226291</v>
+        <v>3247583904.019816</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003009250903458686</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
+        <v>0.1393974552531511</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02702840377821408</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1623791893.307197</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4071305860.420988</v>
+        <v>1353610250.171575</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002611184040020686</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1014707991782653</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04631304902017781</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>676805188.3810873</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8123290139.245234</v>
+        <v>3886876765.204084</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004093390862058724</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
+        <v>0.1304424302811339</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01801482220819118</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1943438461.110526</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6236274792.368906</v>
+        <v>1390753556.101452</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001765321770887551</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1997926774840136</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03764280450094323</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>695376818.7852814</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5140085776.225927</v>
+        <v>4416760660.469958</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002829072884432033</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.08516062649384745</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03176907704177914</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2208380285.701709</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5022135412.557774</v>
+        <v>2953658520.128983</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003880374199823049</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1785337154508485</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03118024420911041</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1476829325.175272</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5574210694.891491</v>
+        <v>3058710112.965345</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004493934187575853</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
+        <v>0.1388418234730731</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03148519018137878</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1529355030.876451</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5672614365.70232</v>
+        <v>2017361406.875943</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003377290100430363</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
+        <v>0.1261180446785065</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.035643016884418</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1008680763.807079</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8400380951.060211</v>
+        <v>4818063265.314854</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004621139766164903</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
+        <v>0.08381198479517882</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04446828092969676</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2409031658.208559</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4168869698.205312</v>
+        <v>5183457146.446535</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005325447052496038</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1250996318115041</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03236602953585262</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2591728691.969159</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5285622001.685795</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1130156381957661</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02694632460330505</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4738116161.113273</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.004179231418403082</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2642810942.306496</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5081721000.428153</v>
+        <v>5031972038.590883</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003518185795413965</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
+        <v>0.1169997674485967</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05071672334288185</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2515986047.770728</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6254524709.715366</v>
+        <v>2908935434.929493</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003661667043012012</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
+        <v>0.0975380274961183</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04938703318987232</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1454467743.048056</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8079142973.962437</v>
+        <v>4477451522.848891</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002796427922340183</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
+        <v>0.1150261781863415</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05098302319663386</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2238725785.834401</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5643871571.600314</v>
+        <v>2066379593.466219</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001002244921435851</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1515151378399196</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04429347613499311</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1033189809.912576</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7021477930.216566</v>
+        <v>3155443845.192782</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00324184085503293</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.06217635964327432</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03808530914796253</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1577721909.325126</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4780229882.707743</v>
+        <v>5156300980.858823</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002827359733710955</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1728988424942965</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02768474819614638</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2578150607.314002</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7475600399.918653</v>
+        <v>1711786701.928726</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002045460640265007</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
+        <v>0.09209794863837122</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03353883526112542</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>855893343.4327395</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7470550558.428258</v>
+        <v>3383195993.240646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001090795002297411</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
+        <v>0.08417213902515577</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.05044250370920349</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1691597957.162788</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6184628121.296504</v>
+        <v>3517649688.84755</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004251554942612461</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>3</v>
+        <v>0.1629161758198983</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02298000587259879</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1758824864.681505</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7548698096.916471</v>
+        <v>2380776312.681235</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004250020883968713</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
+        <v>0.1200053499492608</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02538829921980888</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1190388083.816086</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5115171778.691297</v>
+        <v>3656480729.606237</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002249207049439411</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.114470866517415</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02346934918991726</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1828240334.728859</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7455631567.513691</v>
+        <v>1604821512.503607</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004857473481355588</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1235333498851759</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02978482304241398</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>802410759.0363576</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6364405092.59064</v>
+        <v>3152042570.413687</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005046883051404943</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
+        <v>0.1118494913193256</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04506400230910305</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1576021311.233968</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7578371044.156444</v>
+        <v>1268681031.181442</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002071556666635925</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
+        <v>0.1658614421111306</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03220456281879773</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>634340508.9601951</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5016160925.493658</v>
+        <v>4665369015.612901</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002694802232114998</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
+        <v>0.1085710976198159</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02493618045058296</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2332684539.959541</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4371840617.827464</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1209811624122522</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0290008572420889</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6315074210.915414</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.004760010745149711</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2185920285.588624</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8363346330.209728</v>
+        <v>5306823835.339026</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004372626652635693</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
+        <v>0.1743019962034952</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0190573406157941</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2653411884.210523</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9697183874.138359</v>
+        <v>1946657689.718922</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003648705963217229</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.140926159500682</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02995866283527416</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>973328823.1448667</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5167268172.19574</v>
+        <v>2135407231.017004</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004233745143312973</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.09188549942308177</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03938210387165452</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1067703600.277866</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4962602700.894381</v>
+        <v>2693543832.740407</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003056571793836288</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1664631668858138</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04331752459789337</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1346771942.370008</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6191393280.588765</v>
+        <v>2407208933.843004</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001808691554947745</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+        <v>0.1476323463291047</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02517931795316466</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1203604550.766135</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4662423368.902708</v>
+        <v>1325352547.606627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00104685625685322</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1534443132412991</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03883785024260033</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>662676361.1648425</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7634586921.991652</v>
+        <v>3103686453.019863</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004874773652194442</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
+        <v>0.1261968609858742</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03954505691678117</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1551843266.862354</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7781269775.528669</v>
+        <v>2684182788.360394</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003995134874939888</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
+        <v>0.1184015153947566</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03195779604383904</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1342091455.101122</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6923861569.043385</v>
+        <v>1764030813.991303</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002624866529635267</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.08488424605082923</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04336145704196613</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>882015433.6637826</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7624532027.360724</v>
+        <v>1398713479.0533</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003826574837016464</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
+        <v>0.1846406196447249</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03788921362580493</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>699356791.6400375</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5035253526.050018</v>
+        <v>2378274124.966384</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002780608014705763</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1052157368126918</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03269454759064259</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1189137036.873885</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5840190279.683613</v>
+        <v>4950205067.224334</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001197305365787584</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
+        <v>0.1063457910383295</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04651166218205549</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2475102472.401406</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7499658863.233956</v>
+        <v>2073854315.784802</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009777954452514952</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>4</v>
+        <v>0.1115284444388247</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0355974467680646</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1036927165.502994</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3041529164.171062</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.08609292770718636</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04723869596029091</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6036548582.122155</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002663173334850912</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3</v>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1520764578.458589</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9410318600.548668</v>
+        <v>2191903370.802275</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002198537111386656</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
+        <v>0.09811848055021072</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04180272642717731</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1095951651.582758</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6818964954.054002</v>
+        <v>4694246772.128671</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004232083366502137</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
+        <v>0.1401819053576148</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02258952552547644</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2347123497.820176</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6635020099.193908</v>
+        <v>3466441558.913501</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004534428457915698</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5</v>
+        <v>0.1146818384012089</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01996797022699329</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1733220795.406965</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2554662008.158642</v>
+        <v>3320131181.267203</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005528305275520402</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1273981912165602</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02256493108510037</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1660065599.497253</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6059103748.544099</v>
+        <v>3978158025.295204</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0025211716479558</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1638357919082589</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01882607033014079</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1989079081.209157</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6991964137.901676</v>
+        <v>2819661628.003408</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001070533234266827</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>3</v>
+        <v>0.1455102336401071</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05426729507940808</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1409830878.881759</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1603378774.777783</v>
+        <v>1683468259.515771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09483257757498598</v>
+        <v>0.07446775845166172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03570707038153319</v>
+        <v>0.03789672197522388</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>801689329.378951</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1896996241.419264</v>
+        <v>1932132387.252002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1392606616078087</v>
+        <v>0.1315088856873949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04940195279314502</v>
+        <v>0.04594264032927242</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>948498144.4922563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4558013479.24861</v>
+        <v>3827223875.572491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1298748652229695</v>
+        <v>0.1217171685017982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03491943805582669</v>
+        <v>0.02938745008080032</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2279006792.97188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3830639027.452237</v>
+        <v>4229281633.570767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08310245474665558</v>
+        <v>0.08395186451068605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04934045068315453</v>
+        <v>0.04971512427978735</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1915319528.311044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2542890131.86571</v>
+        <v>2067633348.262933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1294625327536373</v>
+        <v>0.127593641849717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04115102728178113</v>
+        <v>0.03845634968297319</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1271445036.343918</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2180147926.806324</v>
+        <v>2622471649.762285</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09804511020438571</v>
+        <v>0.06498112156232951</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03042971001708492</v>
+        <v>0.03878626310752657</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1090074006.893441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3443292081.885138</v>
+        <v>2636385280.845367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1421347267391978</v>
+        <v>0.1331855452558488</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03267415069420538</v>
+        <v>0.02393743455449391</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1721646143.424721</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1827305935.457847</v>
+        <v>1521862438.725504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333622894289653</v>
+        <v>0.1869178490918696</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02290188061968475</v>
+        <v>0.03336602314610809</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>913653017.9334882</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5791451533.116531</v>
+        <v>3942082358.217045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1742547264153425</v>
+        <v>0.1459612212106104</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0424097657041473</v>
+        <v>0.03694737982459455</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2895725926.751644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3993552573.987937</v>
+        <v>3308917988.767056</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1596252280240804</v>
+        <v>0.1170083413051012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03783515978005541</v>
+        <v>0.04170820796476653</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1996776298.883898</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2671005508.6939</v>
+        <v>2355641865.216572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1972249361576117</v>
+        <v>0.1523997883117469</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04072309028579109</v>
+        <v>0.04395221567168062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1335502741.878803</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4754040390.284778</v>
+        <v>4489968573.704159</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09075503189801319</v>
+        <v>0.06813464193273484</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02302483438126577</v>
+        <v>0.02505724175818572</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2377020211.357102</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3296898479.740212</v>
+        <v>3867746305.11019</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1373848005671025</v>
+        <v>0.1556143886185949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03687153297837786</v>
+        <v>0.04096849010760037</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1648449252.437287</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1331356525.563205</v>
+        <v>1780465788.171681</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07849647760077756</v>
+        <v>0.09323716497274792</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04577357990046694</v>
+        <v>0.04872870086610673</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>665678309.6731598</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2074384424.491796</v>
+        <v>2094154878.557709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09077810654552777</v>
+        <v>0.09606921225481879</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0464162124803234</v>
+        <v>0.03771667390101329</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1037192280.769713</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4833920779.419441</v>
+        <v>4402547064.643371</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1393030457122213</v>
+        <v>0.1570196081089425</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03986315626119863</v>
+        <v>0.048582615416622</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2416960382.678185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3756469114.778677</v>
+        <v>2528024293.05632</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544468362215315</v>
+        <v>0.1656089576777245</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02715523879174963</v>
+        <v>0.02344325061888154</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1878234532.498572</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1372571096.265078</v>
+        <v>925281279.0322922</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1627807904609493</v>
+        <v>0.1317284124685882</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02714295284477663</v>
+        <v>0.01675911773091466</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>686285667.6066567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010388755.208646</v>
+        <v>1703013821.697529</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1462132250449776</v>
+        <v>0.1374434707136333</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02759143160243471</v>
+        <v>0.02446831280425709</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1005194402.501823</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2188813635.096137</v>
+        <v>2299721218.27993</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08222924843534965</v>
+        <v>0.07873396387887747</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04393558906814298</v>
+        <v>0.02870038610554581</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1094406835.110416</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3391353153.349582</v>
+        <v>3236318871.425687</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1230370646966039</v>
+        <v>0.1399006319577116</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0561366905237822</v>
+        <v>0.04954049465646024</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1695676614.416786</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1122824848.859261</v>
+        <v>1362951846.32793</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1538679645742093</v>
+        <v>0.1333190590777354</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03570174430454472</v>
+        <v>0.03491663513856914</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>561412473.5601164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2946402517.921187</v>
+        <v>3090104753.304995</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1175284843448891</v>
+        <v>0.09168704926779035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02818139910443558</v>
+        <v>0.0315693442879364</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1473201297.487202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1118656759.376884</v>
+        <v>1086084234.009886</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09659049457102452</v>
+        <v>0.1102738254830271</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0215887691785604</v>
+        <v>0.02012973459959263</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>559328416.0198276</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1194678474.292903</v>
+        <v>1104187562.285093</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0823146391451182</v>
+        <v>0.111136779601712</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03910744193633737</v>
+        <v>0.03315309460193546</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>597339256.4988288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3768068254.222923</v>
+        <v>4144985143.940841</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1213149680045202</v>
+        <v>0.1007624946672307</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02717170031817755</v>
+        <v>0.024232188777425</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1884034148.431445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3089353767.3108</v>
+        <v>2731469722.995351</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0917581829220301</v>
+        <v>0.1411412415527129</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04981821742424768</v>
+        <v>0.04376659739813169</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1544676902.274833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5121703206.602711</v>
+        <v>4380084442.556572</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1062115172479</v>
+        <v>0.0912831507986725</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0354126859662985</v>
+        <v>0.04048292503393887</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2560851541.808782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2408755831.214661</v>
+        <v>2087068423.080586</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08592401850144836</v>
+        <v>0.1309772510531137</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03887181962951828</v>
+        <v>0.02509427783432399</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1204377999.168819</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1292462481.097591</v>
+        <v>1109911479.794146</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07971679839614731</v>
+        <v>0.1084145279647376</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0419990002500551</v>
+        <v>0.05083245720978542</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>646231169.8850836</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1585639585.511913</v>
+        <v>1379617155.58814</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09017384673270031</v>
+        <v>0.08328185634079545</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03390549782228555</v>
+        <v>0.02386480616754474</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>792819878.4226196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2969955347.029995</v>
+        <v>3071864686.074104</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2076159207108567</v>
+        <v>0.2061540182704754</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03896991847337761</v>
+        <v>0.037683520527581</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1484977671.302868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1155741831.271542</v>
+        <v>1306477840.762908</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09394489437569097</v>
+        <v>0.1098310646291083</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02049762368051838</v>
+        <v>0.02748840294553831</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>577870927.6527853</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1006264774.446262</v>
+        <v>1063347608.617714</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07166732739006632</v>
+        <v>0.08158304794136571</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02730524665623897</v>
+        <v>0.03158493462226129</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>503132404.0886991</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2085181852.026223</v>
+        <v>3091116876.197363</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1680712471110599</v>
+        <v>0.1551270551906491</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02135173360144489</v>
+        <v>0.01962748117054823</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1042590980.869155</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1873785580.807775</v>
+        <v>2311858321.863284</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08101184823943756</v>
+        <v>0.1104096683799694</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02821682023472833</v>
+        <v>0.0269447929061127</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>936892799.9977956</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1623355902.385288</v>
+        <v>1409037616.523843</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07465821861478507</v>
+        <v>0.09897986906611385</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03969728093477413</v>
+        <v>0.03010989524599435</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>811677982.6998378</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1609049565.079495</v>
+        <v>2140089795.869042</v>
       </c>
       <c r="F39" t="n">
-        <v>0.148514000976719</v>
+        <v>0.191342276792356</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02033829017633065</v>
+        <v>0.0236641392457761</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>804524835.9915051</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1202870663.591763</v>
+        <v>1814300358.925812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1077933894971604</v>
+        <v>0.1201312767727083</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04754688707961063</v>
+        <v>0.05189889400189011</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>601435372.0448272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2339933562.740276</v>
+        <v>2554720009.910338</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1267345779401482</v>
+        <v>0.1053291239342216</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04055860183144504</v>
+        <v>0.04488658549634764</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1169966821.970068</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3266474491.171241</v>
+        <v>2814174939.036982</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1081270858756011</v>
+        <v>0.08499276539141234</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03513756296782939</v>
+        <v>0.04501216436320516</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1633237223.958312</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2851360772.081284</v>
+        <v>2046850685.208181</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1837373288394274</v>
+        <v>0.1513036953967482</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01601439274697509</v>
+        <v>0.01738009319635017</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1425680399.04094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1569033629.364451</v>
+        <v>1743387211.128197</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06946950236382665</v>
+        <v>0.09350099713479237</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02837436391358972</v>
+        <v>0.02306065240317423</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>784516834.752074</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2290221287.679531</v>
+        <v>2392540521.97128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.161030660367768</v>
+        <v>0.1232695348719527</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03921396243302761</v>
+        <v>0.05264186823659904</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1145110663.625799</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3567500168.959927</v>
+        <v>4963957454.0451</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1487441824812899</v>
+        <v>0.1782001286986452</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04527830272432141</v>
+        <v>0.04855302378924235</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1783750028.897993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5118161255.877988</v>
+        <v>4705550404.373816</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1360242899616186</v>
+        <v>0.1293639762767849</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05220977290054253</v>
+        <v>0.04700740845672544</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2559080690.161475</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4141897256.518621</v>
+        <v>4339932218.170479</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1016863268621411</v>
+        <v>0.08392049887879241</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02689519639372391</v>
+        <v>0.02967175642998642</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2070948654.021531</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1441092815.867553</v>
+        <v>1815900042.709089</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1664725452047282</v>
+        <v>0.1211959188309262</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03075173650192154</v>
+        <v>0.0394734659545629</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>720546448.7562723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3516726367.314534</v>
+        <v>2692061606.795774</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1729786577834048</v>
+        <v>0.1655452533348388</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05091308585194516</v>
+        <v>0.0521534198489563</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1758363206.254662</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1360935532.868728</v>
+        <v>1464078595.534768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1361925764553542</v>
+        <v>0.1834997141750435</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0348876013174315</v>
+        <v>0.0425157812220562</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>680467791.5798053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5178615774.233119</v>
+        <v>3846937997.137402</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1098474897157026</v>
+        <v>0.1262867046403928</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0617958251402922</v>
+        <v>0.05522840980221999</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2589307873.813743</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2466260892.586303</v>
+        <v>2928599828.640319</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1792407126555002</v>
+        <v>0.1297833237306222</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02568056205174761</v>
+        <v>0.03430811937052691</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1233130515.223881</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3671968260.141297</v>
+        <v>3569197395.955914</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1613954155327109</v>
+        <v>0.1608462257541527</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03770080262988324</v>
+        <v>0.04739856038632016</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1835984168.036853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3247583904.019816</v>
+        <v>4961708243.94408</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1393974552531511</v>
+        <v>0.1485043954060626</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02702840377821408</v>
+        <v>0.02766286341932611</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1623791893.307197</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1353610250.171575</v>
+        <v>1477264833.174821</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1014707991782653</v>
+        <v>0.1286488417082375</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04631304902017781</v>
+        <v>0.0402237747013143</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>676805188.3810873</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3886876765.204084</v>
+        <v>3897807595.509733</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1304424302811339</v>
+        <v>0.1165551824771571</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01801482220819118</v>
+        <v>0.01692992748947723</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1943438461.110526</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1390753556.101452</v>
+        <v>1444547852.118459</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1997926774840136</v>
+        <v>0.1336935833181436</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03764280450094323</v>
+        <v>0.03768007718293687</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>695376818.7852814</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4416760660.469958</v>
+        <v>3962183910.140196</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08516062649384745</v>
+        <v>0.09180168640303049</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03176907704177914</v>
+        <v>0.03296503783024629</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2208380285.701709</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2953658520.128983</v>
+        <v>3208898027.357534</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1785337154508485</v>
+        <v>0.131860310162649</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03118024420911041</v>
+        <v>0.03232610877282755</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1476829325.175272</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3058710112.965345</v>
+        <v>3152320082.275085</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1388418234730731</v>
+        <v>0.1793002304944564</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03148519018137878</v>
+        <v>0.02121577390853554</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1529355030.876451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2017361406.875943</v>
+        <v>1714376916.938064</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1261180446785065</v>
+        <v>0.1808973080753667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.035643016884418</v>
+        <v>0.03267022234440992</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1008680763.807079</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4818063265.314854</v>
+        <v>4802207548.665988</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08381198479517882</v>
+        <v>0.07490455600275914</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04446828092969676</v>
+        <v>0.0319646204963827</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2409031658.208559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5183457146.446535</v>
+        <v>5045728564.865829</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1250996318115041</v>
+        <v>0.1888472450591367</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03236602953585262</v>
+        <v>0.03316297897034281</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2591728691.969159</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5285622001.685795</v>
+        <v>4086912868.770997</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1130156381957661</v>
+        <v>0.1395339995454304</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02694632460330505</v>
+        <v>0.0207755177639628</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2642810942.306496</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5031972038.590883</v>
+        <v>5201099375.716937</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1169997674485967</v>
+        <v>0.1324767038250503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05071672334288185</v>
+        <v>0.04696170253224149</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2515986047.770728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2908935434.929493</v>
+        <v>2574423701.664937</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975380274961183</v>
+        <v>0.07787650970705218</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04938703318987232</v>
+        <v>0.0471307707685191</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1454467743.048056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4477451522.848891</v>
+        <v>4564836180.133074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150261781863415</v>
+        <v>0.1294988829360491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05098302319663386</v>
+        <v>0.03231335891138501</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2238725785.834401</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2066379593.466219</v>
+        <v>1664453052.726958</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1515151378399196</v>
+        <v>0.1263950691369528</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04429347613499311</v>
+        <v>0.05078432953313113</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1033189809.912576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3155443845.192782</v>
+        <v>3488509363.346769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06217635964327432</v>
+        <v>0.07922086661342949</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03808530914796253</v>
+        <v>0.03439001849342967</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1577721909.325126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5156300980.858823</v>
+        <v>3526809903.10183</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1728988424942965</v>
+        <v>0.1733794997391639</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02768474819614638</v>
+        <v>0.0321678421741996</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2578150607.314002</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1711786701.928726</v>
+        <v>2107283848.748065</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09209794863837122</v>
+        <v>0.09328963095612627</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03353883526112542</v>
+        <v>0.03541016769625937</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>855893343.4327395</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3383195993.240646</v>
+        <v>3465675572.451027</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08417213902515577</v>
+        <v>0.07322079931891692</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05044250370920349</v>
+        <v>0.03917246784692537</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1691597957.162788</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3517649688.84755</v>
+        <v>3005324721.821166</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1629161758198983</v>
+        <v>0.1804333891648298</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02298000587259879</v>
+        <v>0.03044664330190593</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1758824864.681505</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2380776312.681235</v>
+        <v>1630963300.928052</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1200053499492608</v>
+        <v>0.1553428632269096</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02538829921980888</v>
+        <v>0.02934955927791604</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1190388083.816086</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3656480729.606237</v>
+        <v>4669033741.405435</v>
       </c>
       <c r="F76" t="n">
-        <v>0.114470866517415</v>
+        <v>0.1019594705750337</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02346934918991726</v>
+        <v>0.02902618020373626</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1828240334.728859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1604821512.503607</v>
+        <v>1530691106.292696</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1235333498851759</v>
+        <v>0.1406732488459907</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02978482304241398</v>
+        <v>0.01941656866960886</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>802410759.0363576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3152042570.413687</v>
+        <v>3793533970.803497</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1118494913193256</v>
+        <v>0.1045472951795924</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04506400230910305</v>
+        <v>0.03848061130500323</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1576021311.233968</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1268681031.181442</v>
+        <v>1335339552.301796</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1658614421111306</v>
+        <v>0.1227453258305579</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03220456281879773</v>
+        <v>0.02495405054925181</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>634340508.9601951</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4665369015.612901</v>
+        <v>3712477924.389915</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1085710976198159</v>
+        <v>0.06798752712477514</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02493618045058296</v>
+        <v>0.03373187187716385</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2332684539.959541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4371840617.827464</v>
+        <v>5070490905.425995</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1209811624122522</v>
+        <v>0.09028144200471661</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0290008572420889</v>
+        <v>0.02313594957154455</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2185920285.588624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5306823835.339026</v>
+        <v>5133355655.838423</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1743019962034952</v>
+        <v>0.1736574436336803</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0190573406157941</v>
+        <v>0.02117600641619101</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2653411884.210523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1946657689.718922</v>
+        <v>2359361096.165812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.140926159500682</v>
+        <v>0.1311143445803248</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02995866283527416</v>
+        <v>0.04254344602013169</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>973328823.1448667</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2135407231.017004</v>
+        <v>1991705211.375812</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09188549942308177</v>
+        <v>0.1204866354614012</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03938210387165452</v>
+        <v>0.05097306744546623</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1067703600.277866</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2693543832.740407</v>
+        <v>2290078321.09761</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1664631668858138</v>
+        <v>0.1765233538906335</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04331752459789337</v>
+        <v>0.05446642533155355</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1346771942.370008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2407208933.843004</v>
+        <v>1740736524.399021</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1476323463291047</v>
+        <v>0.1080849383985953</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02517931795316466</v>
+        <v>0.02106781466387966</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1203604550.766135</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1325352547.606627</v>
+        <v>991920712.4853915</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1534443132412991</v>
+        <v>0.1253018678877577</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03883785024260033</v>
+        <v>0.02902826152915505</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>662676361.1648425</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3103686453.019863</v>
+        <v>3306941881.239162</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1261968609858742</v>
+        <v>0.1752121843141188</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03954505691678117</v>
+        <v>0.0260119458562502</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1551843266.862354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2684182788.360394</v>
+        <v>3397883719.423725</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1184015153947566</v>
+        <v>0.1504942311308987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03195779604383904</v>
+        <v>0.03209586190753461</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1342091455.101122</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1764030813.991303</v>
+        <v>1528073986.586596</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08488424605082923</v>
+        <v>0.1146406726624481</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04336145704196613</v>
+        <v>0.05171671323315401</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>882015433.6637826</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1398713479.0533</v>
+        <v>1756322761.275775</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1846406196447249</v>
+        <v>0.1868282773704483</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03788921362580493</v>
+        <v>0.05516241623655357</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>699356791.6400375</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2378274124.966384</v>
+        <v>2388827894.757714</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1052157368126918</v>
+        <v>0.08209326941315602</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03269454759064259</v>
+        <v>0.04261710827203154</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1189137036.873885</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4950205067.224334</v>
+        <v>4488944388.066456</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1063457910383295</v>
+        <v>0.1330420840200535</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04651166218205549</v>
+        <v>0.04141277611472084</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2475102472.401406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2073854315.784802</v>
+        <v>2447349876.896189</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1115284444388247</v>
+        <v>0.1429888255165881</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0355974467680646</v>
+        <v>0.03020752033834316</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1036927165.502994</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3041529164.171062</v>
+        <v>2390930313.481091</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08609292770718636</v>
+        <v>0.1025872751722196</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04723869596029091</v>
+        <v>0.04291776345426607</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1520764578.458589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2191903370.802275</v>
+        <v>1752060379.494234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09811848055021072</v>
+        <v>0.09352037783771371</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04180272642717731</v>
+        <v>0.04458644380727435</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1095951651.582758</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4694246772.128671</v>
+        <v>3244853436.977152</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1401819053576148</v>
+        <v>0.1428645863033679</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02258952552547644</v>
+        <v>0.01848514016746339</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2347123497.820176</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3466441558.913501</v>
+        <v>2671374519.478723</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1146818384012089</v>
+        <v>0.09257501993541095</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01996797022699329</v>
+        <v>0.02917470892609028</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1733220795.406965</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3320131181.267203</v>
+        <v>3392744535.616614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1273981912165602</v>
+        <v>0.1103592529836642</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02256493108510037</v>
+        <v>0.03324260179461155</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1660065599.497253</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3978158025.295204</v>
+        <v>3616624143.0582</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1638357919082589</v>
+        <v>0.1760961197303091</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01882607033014079</v>
+        <v>0.02769551396031032</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1989079081.209157</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2819661628.003408</v>
+        <v>3067907806.491522</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1455102336401071</v>
+        <v>0.2098536440505594</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05426729507940808</v>
+        <v>0.03689301865720351</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1409830878.881759</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1683468259.515771</v>
+        <v>2453135678.516024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07446775845166172</v>
+        <v>0.07011215603747596</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03789672197522388</v>
+        <v>0.03463377924565061</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1932132387.252002</v>
+        <v>1652688732.508595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1315088856873949</v>
+        <v>0.1632740886575323</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04594264032927242</v>
+        <v>0.04495365800154329</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3827223875.572491</v>
+        <v>3773512461.037942</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1217171685017982</v>
+        <v>0.1300505744683925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02938745008080032</v>
+        <v>0.02583166629139474</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4229281633.570767</v>
+        <v>4150619783.947531</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08395186451068605</v>
+        <v>0.0722264424465523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04971512427978735</v>
+        <v>0.05062721176689842</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2067633348.262933</v>
+        <v>2142221118.627415</v>
       </c>
       <c r="F6" t="n">
-        <v>0.127593641849717</v>
+        <v>0.1033041533343816</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03845634968297319</v>
+        <v>0.03665470209047359</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2622471649.762285</v>
+        <v>2755729805.541599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06498112156232951</v>
+        <v>0.06952962162246536</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03878626310752657</v>
+        <v>0.03507825252741898</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2636385280.845367</v>
+        <v>3895082375.814162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1331855452558488</v>
+        <v>0.134900632942501</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02393743455449391</v>
+        <v>0.02869476297652909</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1521862438.725504</v>
+        <v>1413153565.485653</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869178490918696</v>
+        <v>0.1725811935819344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03336602314610809</v>
+        <v>0.03462127825743052</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3942082358.217045</v>
+        <v>4761977693.761868</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1459612212106104</v>
+        <v>0.150322322937876</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03694737982459455</v>
+        <v>0.04872601691850487</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3308917988.767056</v>
+        <v>4046576622.307125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1170083413051012</v>
+        <v>0.1653188856643199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04170820796476653</v>
+        <v>0.03375632925169737</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2355641865.216572</v>
+        <v>2955247467.298253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1523997883117469</v>
+        <v>0.164027083319269</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04395221567168062</v>
+        <v>0.03299364226597152</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4489968573.704159</v>
+        <v>3443673802.141518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06813464193273484</v>
+        <v>0.0819627756996375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02505724175818572</v>
+        <v>0.02298711309491429</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3867746305.11019</v>
+        <v>3184902365.759973</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1556143886185949</v>
+        <v>0.1194636752892084</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04096849010760037</v>
+        <v>0.02977270922827297</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780465788.171681</v>
+        <v>1587790277.773135</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09323716497274792</v>
+        <v>0.07280291439262754</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04872870086610673</v>
+        <v>0.04638872592643384</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2094154878.557709</v>
+        <v>2507427996.327182</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09606921225481879</v>
+        <v>0.1140738953464518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03771667390101329</v>
+        <v>0.05181557799043886</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4402547064.643371</v>
+        <v>4086132974.509137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1570196081089425</v>
+        <v>0.147683371837705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.048582615416622</v>
+        <v>0.0477403211595575</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2528024293.05632</v>
+        <v>4006625382.250555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1656089576777245</v>
+        <v>0.1782228742692721</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02344325061888154</v>
+        <v>0.02893206464918488</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>925281279.0322922</v>
+        <v>1310538235.924695</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1317284124685882</v>
+        <v>0.1821493949825186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01675911773091466</v>
+        <v>0.01961510729996954</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1703013821.697529</v>
+        <v>2642061026.492563</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1374434707136333</v>
+        <v>0.1055263606120915</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02446831280425709</v>
+        <v>0.02046073655792075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2299721218.27993</v>
+        <v>1740265480.968063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07873396387887747</v>
+        <v>0.08882998505780297</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02870038610554581</v>
+        <v>0.04492258137334706</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3236318871.425687</v>
+        <v>3650904183.760084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1399006319577116</v>
+        <v>0.1007134949735766</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04954049465646024</v>
+        <v>0.03676413377330494</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1362951846.32793</v>
+        <v>1345406107.44137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1333190590777354</v>
+        <v>0.1524072913868692</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03491663513856914</v>
+        <v>0.03744644487614086</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3090104753.304995</v>
+        <v>2651963273.581861</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09168704926779035</v>
+        <v>0.09777980208212436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0315693442879364</v>
+        <v>0.0309586102590091</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1086084234.009886</v>
+        <v>1079144128.950866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1102738254830271</v>
+        <v>0.1014981285565819</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02012973459959263</v>
+        <v>0.02413207343801587</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1104187562.285093</v>
+        <v>930104065.6678874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.111136779601712</v>
+        <v>0.09228714042405205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03315309460193546</v>
+        <v>0.0359332471441312</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4144985143.940841</v>
+        <v>3607959490.347643</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1007624946672307</v>
+        <v>0.09560939154773584</v>
       </c>
       <c r="G27" t="n">
-        <v>0.024232188777425</v>
+        <v>0.01975664867238391</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2731469722.995351</v>
+        <v>2925442264.44004</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1411412415527129</v>
+        <v>0.1307296315577543</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04376659739813169</v>
+        <v>0.0483705358513442</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4380084442.556572</v>
+        <v>4890490634.804881</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0912831507986725</v>
+        <v>0.1300933283763256</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04048292503393887</v>
+        <v>0.04319349463593837</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2087068423.080586</v>
+        <v>2016967194.069396</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1309772510531137</v>
+        <v>0.1194615960788126</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02509427783432399</v>
+        <v>0.02704080148481291</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1109911479.794146</v>
+        <v>1375671185.356347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1084145279647376</v>
+        <v>0.09555767159981983</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05083245720978542</v>
+        <v>0.04821745906655051</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1379617155.58814</v>
+        <v>1532765836.042371</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08328185634079545</v>
+        <v>0.07961224424745914</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02386480616754474</v>
+        <v>0.02561596108175737</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3071864686.074104</v>
+        <v>2725298592.472759</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2061540182704754</v>
+        <v>0.1968755481251841</v>
       </c>
       <c r="G33" t="n">
-        <v>0.037683520527581</v>
+        <v>0.05774030783272624</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1306477840.762908</v>
+        <v>1124458903.239246</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1098310646291083</v>
+        <v>0.08288604569324066</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02748840294553831</v>
+        <v>0.01831583968121289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1063347608.617714</v>
+        <v>962275179.4814334</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08158304794136571</v>
+        <v>0.1134954717674438</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03158493462226129</v>
+        <v>0.02830599713504602</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3091116876.197363</v>
+        <v>2063941838.270488</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1551270551906491</v>
+        <v>0.1379625330708613</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01962748117054823</v>
+        <v>0.02858965857882697</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2311858321.863284</v>
+        <v>2123452718.671724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104096683799694</v>
+        <v>0.07613022153566799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0269447929061127</v>
+        <v>0.02816782896858672</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1409037616.523843</v>
+        <v>1936306761.974934</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09897986906611385</v>
+        <v>0.09282838345827339</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03010989524599435</v>
+        <v>0.03517751218923626</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2140089795.869042</v>
+        <v>1352931284.697011</v>
       </c>
       <c r="F39" t="n">
-        <v>0.191342276792356</v>
+        <v>0.1524527972022592</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0236641392457761</v>
+        <v>0.02909169076798774</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1814300358.925812</v>
+        <v>1314090740.117217</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1201312767727083</v>
+        <v>0.1249491194248077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05189889400189011</v>
+        <v>0.05912738837141691</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2554720009.910338</v>
+        <v>2393189877.907619</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1053291239342216</v>
+        <v>0.1302077540009352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04488658549634764</v>
+        <v>0.03746051658419766</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2814174939.036982</v>
+        <v>3408733296.491386</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08499276539141234</v>
+        <v>0.1185731631634096</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04501216436320516</v>
+        <v>0.03535497651828362</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2046850685.208181</v>
+        <v>2411787417.249954</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1513036953967482</v>
+        <v>0.1550486850395879</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01738009319635017</v>
+        <v>0.01850136988322576</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1743387211.128197</v>
+        <v>1575133798.884772</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09350099713479237</v>
+        <v>0.09957026396228078</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02306065240317423</v>
+        <v>0.02905778258567293</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2392540521.97128</v>
+        <v>2261199435.583399</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1232695348719527</v>
+        <v>0.1571557343602514</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05264186823659904</v>
+        <v>0.05027266631064691</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4963957454.0451</v>
+        <v>5280795282.147317</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1782001286986452</v>
+        <v>0.1282422325256178</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04855302378924235</v>
+        <v>0.03906103197201669</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4705550404.373816</v>
+        <v>4287274140.462098</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1293639762767849</v>
+        <v>0.1307981141300713</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04700740845672544</v>
+        <v>0.05330343169930336</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4339932218.170479</v>
+        <v>3994929434.78796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08392049887879241</v>
+        <v>0.08321748371186366</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02967175642998642</v>
+        <v>0.03192197591388715</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1815900042.709089</v>
+        <v>1965319556.366874</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1211959188309262</v>
+        <v>0.1727768620949805</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0394734659545629</v>
+        <v>0.03316166405633519</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2692061606.795774</v>
+        <v>3926742532.280784</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1655452533348388</v>
+        <v>0.1073895303530324</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0521534198489563</v>
+        <v>0.03893443769811281</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1464078595.534768</v>
+        <v>1401062840.415601</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1834997141750435</v>
+        <v>0.1629557069654455</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0425157812220562</v>
+        <v>0.03657579855575043</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3846937997.137402</v>
+        <v>3616541562.076227</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1262867046403928</v>
+        <v>0.1239241089599911</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05522840980221999</v>
+        <v>0.05274811868166639</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2928599828.640319</v>
+        <v>3462186943.377218</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1297833237306222</v>
+        <v>0.1669404192806333</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03430811937052691</v>
+        <v>0.03020359005981112</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3569197395.955914</v>
+        <v>4931775269.974172</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1608462257541527</v>
+        <v>0.1610510618598391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04739856038632016</v>
+        <v>0.04266813402790773</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4961708243.94408</v>
+        <v>3665673761.738917</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1485043954060626</v>
+        <v>0.1488707611895554</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02766286341932611</v>
+        <v>0.02904234906602865</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1477264833.174821</v>
+        <v>1561974927.150759</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1286488417082375</v>
+        <v>0.1621439868735528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0402237747013143</v>
+        <v>0.0422905270772885</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3897807595.509733</v>
+        <v>3633658415.700539</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1165551824771571</v>
+        <v>0.1539379568528537</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01692992748947723</v>
+        <v>0.02244449679889278</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1444547852.118459</v>
+        <v>1574589479.281749</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1336935833181436</v>
+        <v>0.1260120186379239</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03768007718293687</v>
+        <v>0.03065202524947307</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3962183910.140196</v>
+        <v>4428724816.357088</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09180168640303049</v>
+        <v>0.1109747407096954</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03296503783024629</v>
+        <v>0.04895756830249961</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3208898027.357534</v>
+        <v>3390020859.061319</v>
       </c>
       <c r="F60" t="n">
-        <v>0.131860310162649</v>
+        <v>0.1614952621282353</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03232610877282755</v>
+        <v>0.03233337092680471</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3152320082.275085</v>
+        <v>2069054820.978472</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1793002304944564</v>
+        <v>0.1466393855253199</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02121577390853554</v>
+        <v>0.03216696869292208</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1714376916.938064</v>
+        <v>1321739234.995759</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1808973080753667</v>
+        <v>0.159385633532615</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03267022234440992</v>
+        <v>0.04879991905863149</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4802207548.665988</v>
+        <v>4414126391.161414</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07490455600275914</v>
+        <v>0.07107612627419295</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0319646204963827</v>
+        <v>0.04761917849375513</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5045728564.865829</v>
+        <v>3876405601.454712</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1888472450591367</v>
+        <v>0.1819315729297042</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03316297897034281</v>
+        <v>0.03104630302420928</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4086912868.770997</v>
+        <v>4955433045.215979</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1395339995454304</v>
+        <v>0.164954918347563</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0207755177639628</v>
+        <v>0.02312830873199525</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5201099375.716937</v>
+        <v>4945365748.36452</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1324767038250503</v>
+        <v>0.150496069572182</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04696170253224149</v>
+        <v>0.03890246971502355</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2574423701.664937</v>
+        <v>2290735314.679495</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07787650970705218</v>
+        <v>0.0773898452842557</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0471307707685191</v>
+        <v>0.03189296696267043</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4564836180.133074</v>
+        <v>4142147296.554727</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1294988829360491</v>
+        <v>0.1081561124514548</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03231335891138501</v>
+        <v>0.04705730927935504</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1664453052.726958</v>
+        <v>1591732522.175115</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263950691369528</v>
+        <v>0.1700817804379657</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05078432953313113</v>
+        <v>0.04267271207246498</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3488509363.346769</v>
+        <v>3089466382.978607</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07922086661342949</v>
+        <v>0.07487082769627543</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03439001849342967</v>
+        <v>0.03989313093383414</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3526809903.10183</v>
+        <v>3483585501.302153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1733794997391639</v>
+        <v>0.1122508812763916</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0321678421741996</v>
+        <v>0.02713313156114806</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2107283848.748065</v>
+        <v>1826053729.585501</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09328963095612627</v>
+        <v>0.08676660787662276</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03541016769625937</v>
+        <v>0.04644801075933438</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3465675572.451027</v>
+        <v>2387725232.430559</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07322079931891692</v>
+        <v>0.1115343760417628</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03917246784692537</v>
+        <v>0.03689511163769076</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3005324721.821166</v>
+        <v>2809198923.05361</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1804333891648298</v>
+        <v>0.1283919396474036</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03044664330190593</v>
+        <v>0.03311460883250688</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1630963300.928052</v>
+        <v>2182233052.238291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553428632269096</v>
+        <v>0.1198208199257599</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02934955927791604</v>
+        <v>0.02477936572411175</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4669033741.405435</v>
+        <v>5202990619.153072</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1019594705750337</v>
+        <v>0.1081769474439142</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02902618020373626</v>
+        <v>0.02762584440472677</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1530691106.292696</v>
+        <v>1673464465.95541</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406732488459907</v>
+        <v>0.1554982679127246</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01941656866960886</v>
+        <v>0.02952226116097141</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3793533970.803497</v>
+        <v>3639912954.822451</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1045472951795924</v>
+        <v>0.1283405139940164</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03848061130500323</v>
+        <v>0.0354019443740027</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1335339552.301796</v>
+        <v>1343944752.579018</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1227453258305579</v>
+        <v>0.1653335518452537</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02495405054925181</v>
+        <v>0.0313714017123424</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3712477924.389915</v>
+        <v>5474705081.195852</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06798752712477514</v>
+        <v>0.1103561286241027</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03373187187716385</v>
+        <v>0.02409133806133967</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5070490905.425995</v>
+        <v>4440744024.620556</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09028144200471661</v>
+        <v>0.125973507977046</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02313594957154455</v>
+        <v>0.03135318474786714</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5133355655.838423</v>
+        <v>3922954286.174757</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1736574436336803</v>
+        <v>0.1860407383258841</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02117600641619101</v>
+        <v>0.02464938223310682</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2359361096.165812</v>
+        <v>1972628909.564823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1311143445803248</v>
+        <v>0.1165731569386656</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04254344602013169</v>
+        <v>0.02956324713317599</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1991705211.375812</v>
+        <v>1931480833.966335</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1204866354614012</v>
+        <v>0.1089499451119287</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05097306744546623</v>
+        <v>0.05054814660289537</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2290078321.09761</v>
+        <v>3547826971.905637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1765233538906335</v>
+        <v>0.1367099969478808</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05446642533155355</v>
+        <v>0.04859149338567523</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1740736524.399021</v>
+        <v>2577131531.043746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1080849383985953</v>
+        <v>0.1357626770936312</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02106781466387966</v>
+        <v>0.01767899481633326</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991920712.4853915</v>
+        <v>1320315639.165765</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1253018678877577</v>
+        <v>0.1802423566690823</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02902826152915505</v>
+        <v>0.04345419590229243</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3306941881.239162</v>
+        <v>2696375857.601476</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1752121843141188</v>
+        <v>0.1342862009768205</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0260119458562502</v>
+        <v>0.03162348704506621</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3397883719.423725</v>
+        <v>2207590718.6828</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1504942311308987</v>
+        <v>0.1466397332138653</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03209586190753461</v>
+        <v>0.02873706171122281</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1528073986.586596</v>
+        <v>2107783067.979056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1146406726624481</v>
+        <v>0.1171704463592027</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05171671323315401</v>
+        <v>0.0341526252311743</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1756322761.275775</v>
+        <v>1915316643.388325</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1868282773704483</v>
+        <v>0.1182824527660397</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05516241623655357</v>
+        <v>0.05687661851213187</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2388827894.757714</v>
+        <v>1879959066.479248</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08209326941315602</v>
+        <v>0.09661732498280687</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04261710827203154</v>
+        <v>0.04590377319046107</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4488944388.066456</v>
+        <v>4856653293.781138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1330420840200535</v>
+        <v>0.1318189189561221</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04141277611472084</v>
+        <v>0.05275688191753526</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2447349876.896189</v>
+        <v>1745493259.596629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1429888255165881</v>
+        <v>0.139400043607664</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03020752033834316</v>
+        <v>0.02876090887647556</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2390930313.481091</v>
+        <v>3045155077.041327</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1025872751722196</v>
+        <v>0.1149067360727224</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04291776345426607</v>
+        <v>0.04561814453602745</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1752060379.494234</v>
+        <v>1690275287.185016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09352037783771371</v>
+        <v>0.08911551040761793</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04458644380727435</v>
+        <v>0.04622209524886972</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3244853436.977152</v>
+        <v>4487161144.872383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1428645863033679</v>
+        <v>0.1748667629065804</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01848514016746339</v>
+        <v>0.02281819008608967</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2671374519.478723</v>
+        <v>2926637643.932075</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09257501993541095</v>
+        <v>0.08147174539728694</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02917470892609028</v>
+        <v>0.03239943799206056</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3392744535.616614</v>
+        <v>2165287159.647605</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1103592529836642</v>
+        <v>0.1240230014162222</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03324260179461155</v>
+        <v>0.03523092223435538</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3616624143.0582</v>
+        <v>3806172372.847198</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760961197303091</v>
+        <v>0.1471369458299517</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02769551396031032</v>
+        <v>0.02279659704121797</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3067907806.491522</v>
+        <v>3610229256.11126</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2098536440505594</v>
+        <v>0.2040295494013852</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03689301865720351</v>
+        <v>0.04129605238386188</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2453135678.516024</v>
+        <v>1527263545.268494</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07011215603747596</v>
+        <v>0.06934509771231027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03463377924565061</v>
+        <v>0.03762415030944074</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1652688732.508595</v>
+        <v>2448132839.572227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1632740886575323</v>
+        <v>0.1312036139167531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04495365800154329</v>
+        <v>0.03174189589400879</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3773512461.037942</v>
+        <v>4711847379.281202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1300505744683925</v>
+        <v>0.1510550770304807</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02583166629139474</v>
+        <v>0.02578530118710715</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0082148812545</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4150619783.947531</v>
+        <v>2614849589.550696</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0722264424465523</v>
+        <v>0.08480234477130151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05062721176689842</v>
+        <v>0.03120341585723092</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>69.15092852870211</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2142221118.627415</v>
+        <v>2060310389.486051</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1033041533343816</v>
+        <v>0.1226208776584932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03665470209047359</v>
+        <v>0.0436473956126177</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2755729805.541599</v>
+        <v>1915934110.076635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06952962162246536</v>
+        <v>0.07501914496091419</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03507825252741898</v>
+        <v>0.03886040928079144</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3895082375.814162</v>
+        <v>2926278648.832897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.134900632942501</v>
+        <v>0.1849956548004056</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02869476297652909</v>
+        <v>0.03200566157825419</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>78.04832963277626</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1413153565.485653</v>
+        <v>1573055480.303073</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1725811935819344</v>
+        <v>0.1775078462537669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03462127825743052</v>
+        <v>0.02365450700889566</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4761977693.761868</v>
+        <v>5339140764.092809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.150322322937876</v>
+        <v>0.139344107313371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04872601691850487</v>
+        <v>0.04722511753223731</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1075777997882</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4046576622.307125</v>
+        <v>4161184409.882022</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1653188856643199</v>
+        <v>0.1618168740208592</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03375632925169737</v>
+        <v>0.03045597120961968</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2955247467.298253</v>
+        <v>2401847409.827452</v>
       </c>
       <c r="F12" t="n">
-        <v>0.164027083319269</v>
+        <v>0.1930490693696241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03299364226597152</v>
+        <v>0.03772620429751098</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3443673802.141518</v>
+        <v>5177811925.742926</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0819627756996375</v>
+        <v>0.08881100944636218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02298711309491429</v>
+        <v>0.02259864261863515</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.1929860906484</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3184902365.759973</v>
+        <v>3592339382.227213</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1194636752892084</v>
+        <v>0.1527159590398147</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02977270922827297</v>
+        <v>0.03112043102186571</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1587790277.773135</v>
+        <v>1792038925.361258</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07280291439262754</v>
+        <v>0.07604386623911234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04638872592643384</v>
+        <v>0.0440313686316774</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2507427996.327182</v>
+        <v>1844015629.265286</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140738953464518</v>
+        <v>0.07163098680602692</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05181557799043886</v>
+        <v>0.0320323374802065</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4086132974.509137</v>
+        <v>5080184451.225677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.147683371837705</v>
+        <v>0.1196545578995654</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0477403211595575</v>
+        <v>0.04778458217485788</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4006625382.250555</v>
+        <v>2740018619.879812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1782228742692721</v>
+        <v>0.1769695552693105</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02893206464918488</v>
+        <v>0.02419603847147872</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1310538235.924695</v>
+        <v>959233332.4636196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1821493949825186</v>
+        <v>0.1685438851759305</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01961510729996954</v>
+        <v>0.0272588183797772</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2642061026.492563</v>
+        <v>2544025016.773644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1055263606120915</v>
+        <v>0.159789015065723</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02046073655792075</v>
+        <v>0.02442094158175072</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1740265480.968063</v>
+        <v>1881814729.176569</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08882998505780297</v>
+        <v>0.07515469084965808</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04492258137334706</v>
+        <v>0.03608606062283253</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3650904183.760084</v>
+        <v>3015480522.121513</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1007134949735766</v>
+        <v>0.1075421534256888</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03676413377330494</v>
+        <v>0.05579042526259674</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>77.01891736550512</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1345406107.44137</v>
+        <v>1126745224.701816</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1524072913868692</v>
+        <v>0.1371769740803613</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03744644487614086</v>
+        <v>0.04328518978374087</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2651963273.581861</v>
+        <v>3209174846.002711</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09777980208212436</v>
+        <v>0.1447945694249644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0309586102590091</v>
+        <v>0.02954954630244251</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079144128.950866</v>
+        <v>1379559204.073895</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1014981285565819</v>
+        <v>0.1076918296662673</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02413207343801587</v>
+        <v>0.02108644296483522</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>930104065.6678874</v>
+        <v>1313494647.753096</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09228714042405205</v>
+        <v>0.08019817199599885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0359332471441312</v>
+        <v>0.02465230268942962</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3607959490.347643</v>
+        <v>4248458775.901067</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09560939154773584</v>
+        <v>0.1129188146820915</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01975664867238391</v>
+        <v>0.02501117393116819</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11</v>
+      </c>
+      <c r="K27" t="n">
+        <v>139.4923593639837</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2925442264.44004</v>
+        <v>2559910435.116691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307296315577543</v>
+        <v>0.1292669103506666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0483705358513442</v>
+        <v>0.04774711152164465</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4890490634.804881</v>
+        <v>5312005475.993381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1300933283763256</v>
+        <v>0.1227351069860119</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04319349463593837</v>
+        <v>0.04463314551543798</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0033630587508</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2016967194.069396</v>
+        <v>2076528148.786098</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1194615960788126</v>
+        <v>0.09413324687600548</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02704080148481291</v>
+        <v>0.02599848998127641</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1375671185.356347</v>
+        <v>1178686439.252607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09555767159981983</v>
+        <v>0.09333217276432455</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04821745906655051</v>
+        <v>0.04121115433236908</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1532765836.042371</v>
+        <v>1880108007.907096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07961224424745914</v>
+        <v>0.1113249096423673</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02561596108175737</v>
+        <v>0.02579032361911809</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2725298592.472759</v>
+        <v>1904054053.412191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1968755481251841</v>
+        <v>0.1876982932267301</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05774030783272624</v>
+        <v>0.06038176903358313</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1124458903.239246</v>
+        <v>1267470359.397126</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08288604569324066</v>
+        <v>0.109129920060508</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01831583968121289</v>
+        <v>0.02486019105548506</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>962275179.4814334</v>
+        <v>1181558182.211298</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1134954717674438</v>
+        <v>0.08692328579480571</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02830599713504602</v>
+        <v>0.04283298629728836</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2063941838.270488</v>
+        <v>3018920874.569464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1379625330708613</v>
+        <v>0.1608454379451554</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02858965857882697</v>
+        <v>0.01824158144124625</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2123452718.671724</v>
+        <v>1980279633.451213</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07613022153566799</v>
+        <v>0.0678153988360839</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02816782896858672</v>
+        <v>0.02696778248330077</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1936306761.974934</v>
+        <v>1567844047.572721</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09282838345827339</v>
+        <v>0.0744562742106271</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03517751218923626</v>
+        <v>0.0292970944316648</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1352931284.697011</v>
+        <v>1645046525.91172</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1524527972022592</v>
+        <v>0.1915905413612837</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02909169076798774</v>
+        <v>0.02213124967069786</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1314090740.117217</v>
+        <v>1171508867.116408</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249491194248077</v>
+        <v>0.1123717585088112</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05912738837141691</v>
+        <v>0.05340101146605263</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2393189877.907619</v>
+        <v>2932076657.637131</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302077540009352</v>
+        <v>0.1082824148132091</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03746051658419766</v>
+        <v>0.03333179280676788</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3408733296.491386</v>
+        <v>4040873663.722539</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1185731631634096</v>
+        <v>0.1219076992456209</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03535497651828362</v>
+        <v>0.04514506615901923</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2411787417.249954</v>
+        <v>1892662081.921973</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1550486850395879</v>
+        <v>0.1720076530174073</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01850136988322576</v>
+        <v>0.01975500693192503</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1575133798.884772</v>
+        <v>1781258831.43291</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09957026396228078</v>
+        <v>0.08156370728732376</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02905778258567293</v>
+        <v>0.02258621846940252</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2261199435.583399</v>
+        <v>1536511036.613088</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1571557343602514</v>
+        <v>0.1402571329982863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05027266631064691</v>
+        <v>0.03525617876855362</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5280795282.147317</v>
+        <v>5023943676.547324</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1282422325256178</v>
+        <v>0.1122576600981091</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03906103197201669</v>
+        <v>0.06032913896575332</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4287274140.462098</v>
+        <v>4720779288.817142</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1307981141300713</v>
+        <v>0.1402803109584924</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05330343169930336</v>
+        <v>0.03978325126444648</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.7336426237355</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3994929434.78796</v>
+        <v>3569525717.077517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08321748371186366</v>
+        <v>0.07057586791091806</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03192197591388715</v>
+        <v>0.03808918803477927</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>10</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1965319556.366874</v>
+        <v>1717356006.91548</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1727768620949805</v>
+        <v>0.1282699739654553</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03316166405633519</v>
+        <v>0.03497076367038165</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3926742532.280784</v>
+        <v>3037187442.088955</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1073895303530324</v>
+        <v>0.1772755869829642</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03893443769811281</v>
+        <v>0.04643035924428651</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1401062840.415601</v>
+        <v>1397807334.577682</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1629557069654455</v>
+        <v>0.135767050644499</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03657579855575043</v>
+        <v>0.05121993675274198</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3616541562.076227</v>
+        <v>4286674921.18008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1239241089599911</v>
+        <v>0.09990962109058443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05274811868166639</v>
+        <v>0.05549753863835685</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>190.8720164782887</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3462186943.377218</v>
+        <v>2833662457.44782</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1669404192806333</v>
+        <v>0.1240344626242298</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03020359005981112</v>
+        <v>0.03535843779289381</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4931775269.974172</v>
+        <v>4819274977.261653</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1610510618598391</v>
+        <v>0.1504456025188462</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04266813402790773</v>
+        <v>0.05182720986129235</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3665673761.738917</v>
+        <v>4658307615.997692</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1488707611895554</v>
+        <v>0.222485200130348</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02904234906602865</v>
+        <v>0.02255835195371079</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1561974927.150759</v>
+        <v>1443948760.18267</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1621439868735528</v>
+        <v>0.123862277299368</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0422905270772885</v>
+        <v>0.05414075218418881</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3633658415.700539</v>
+        <v>3547634354.258466</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1539379568528537</v>
+        <v>0.1441911935446864</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02244449679889278</v>
+        <v>0.02624101982343886</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1574589479.281749</v>
+        <v>1314806778.691673</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1260120186379239</v>
+        <v>0.1512881775599762</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03065202524947307</v>
+        <v>0.02607461613083471</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4428724816.357088</v>
+        <v>5412859031.483215</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1109747407096954</v>
+        <v>0.118932270740512</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04895756830249961</v>
+        <v>0.04259988241982507</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3390020859.061319</v>
+        <v>3397222016.804075</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1614952621282353</v>
+        <v>0.1716020122782683</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03233337092680471</v>
+        <v>0.02265187122431329</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2069054820.978472</v>
+        <v>2712692889.217135</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1466393855253199</v>
+        <v>0.1157557659507678</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03216696869292208</v>
+        <v>0.02113499519341857</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1321739234.995759</v>
+        <v>1436945940.8864</v>
       </c>
       <c r="F62" t="n">
-        <v>0.159385633532615</v>
+        <v>0.1730660082195401</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04879991905863149</v>
+        <v>0.04354467641151125</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4414126391.161414</v>
+        <v>5523778752.137394</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07107612627419295</v>
+        <v>0.08497490536717993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04761917849375513</v>
+        <v>0.03698841436027743</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>11</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.4160988620997</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3876405601.454712</v>
+        <v>5552561777.454222</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1819315729297042</v>
+        <v>0.1517779404395727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03104630302420928</v>
+        <v>0.0317961397332957</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.2265258073802</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4955433045.215979</v>
+        <v>5521012288.786856</v>
       </c>
       <c r="F65" t="n">
-        <v>0.164954918347563</v>
+        <v>0.1473800199388521</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02312830873199525</v>
+        <v>0.02696577726602839</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5785296788157</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4945365748.36452</v>
+        <v>3688002102.551424</v>
       </c>
       <c r="F66" t="n">
-        <v>0.150496069572182</v>
+        <v>0.1519980930236858</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03890246971502355</v>
+        <v>0.03108286302703154</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11</v>
+      </c>
+      <c r="K66" t="n">
+        <v>121.1799003338691</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2290735314.679495</v>
+        <v>2778607174.47916</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0773898452842557</v>
+        <v>0.0698747705989754</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03189296696267043</v>
+        <v>0.03662035374479813</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4142147296.554727</v>
+        <v>4253382164.428562</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1081561124514548</v>
+        <v>0.1334663060843052</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04705730927935504</v>
+        <v>0.03557922324590883</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11</v>
+      </c>
+      <c r="K68" t="n">
+        <v>164.737626478037</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1591732522.175115</v>
+        <v>2197211864.557796</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1700817804379657</v>
+        <v>0.1544407028379495</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04267271207246498</v>
+        <v>0.03786828596449768</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3089466382.978607</v>
+        <v>3584464892.512504</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07487082769627543</v>
+        <v>0.09593436412715864</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03989313093383414</v>
+        <v>0.04215526908608341</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3483585501.302153</v>
+        <v>5614457761.193455</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1122508812763916</v>
+        <v>0.1176594535470417</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02713313156114806</v>
+        <v>0.03181631167332237</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6092203385813</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1826053729.585501</v>
+        <v>2180389140.840192</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08676660787662276</v>
+        <v>0.08180580274821278</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04644801075933438</v>
+        <v>0.05059367983078218</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3012,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2387725232.430559</v>
+        <v>3367624657.571432</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1115343760417628</v>
+        <v>0.1064241020722775</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03689511163769076</v>
+        <v>0.03534656322355721</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="n">
+        <v>115.5009847432911</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2809198923.05361</v>
+        <v>4010751662.630673</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1283919396474036</v>
+        <v>0.1669721665676582</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03311460883250688</v>
+        <v>0.02431088899492237</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2182233052.238291</v>
+        <v>1593482630.465074</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1198208199257599</v>
+        <v>0.1273631403821888</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02477936572411175</v>
+        <v>0.02870619973447049</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5202990619.153072</v>
+        <v>4808565152.15829</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1081769474439142</v>
+        <v>0.08789408906319833</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02762584440472677</v>
+        <v>0.02902064847280929</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>11</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.6918895535619</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1673464465.95541</v>
+        <v>2229376897.25314</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1554982679127246</v>
+        <v>0.1618359107142585</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02952226116097141</v>
+        <v>0.02053139705132542</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3639912954.822451</v>
+        <v>3830043597.977047</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1283405139940164</v>
+        <v>0.1138031497972149</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0354019443740027</v>
+        <v>0.03893288903783448</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1343944752.579018</v>
+        <v>1922804181.995553</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1653335518452537</v>
+        <v>0.1267881361425511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0313714017123424</v>
+        <v>0.03825153274497652</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5474705081.195852</v>
+        <v>4855390576.69035</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1103561286241027</v>
+        <v>0.0726606595081265</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02409133806133967</v>
+        <v>0.03646278034046163</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4440744024.620556</v>
+        <v>4045689559.884763</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125973507977046</v>
+        <v>0.1191890571178345</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03135318474786714</v>
+        <v>0.0288415692021469</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3922954286.174757</v>
+        <v>5386980539.001069</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1860407383258841</v>
+        <v>0.1865327761615583</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02464938223310682</v>
+        <v>0.0191067131316275</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>11</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.3803320692224</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1972628909.564823</v>
+        <v>2440581229.562656</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1165731569386656</v>
+        <v>0.1232198388661594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02956324713317599</v>
+        <v>0.03912434489100207</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1931480833.966335</v>
+        <v>2289675556.282441</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1089499451119287</v>
+        <v>0.09363496584301682</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05054814660289537</v>
+        <v>0.03220748231262147</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3547826971.905637</v>
+        <v>3641676442.4669</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1367099969478808</v>
+        <v>0.1410292283791765</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04859149338567523</v>
+        <v>0.05232166663640872</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2577131531.043746</v>
+        <v>1962893471.671509</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1357626770936312</v>
+        <v>0.110406573502771</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01767899481633326</v>
+        <v>0.0193804469578102</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1320315639.165765</v>
+        <v>920948281.7580487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1802423566690823</v>
+        <v>0.1671528041842566</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04345419590229243</v>
+        <v>0.02971123738086417</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2696375857.601476</v>
+        <v>2986575270.326473</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1342862009768205</v>
+        <v>0.1746339619417201</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03162348704506621</v>
+        <v>0.02823336174624322</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2207590718.6828</v>
+        <v>2310331809.350269</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1466397332138653</v>
+        <v>0.1326960008092798</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02873706171122281</v>
+        <v>0.03486778372715004</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2107783067.979056</v>
+        <v>1983427511.100669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1171704463592027</v>
+        <v>0.08759647576511256</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0341526252311743</v>
+        <v>0.03512871084878502</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1915316643.388325</v>
+        <v>1673699624.673191</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1182824527660397</v>
+        <v>0.1601436992430966</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05687661851213187</v>
+        <v>0.04282127695238936</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1879959066.479248</v>
+        <v>2738839718.306856</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09661732498280687</v>
+        <v>0.07973974121478627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04590377319046107</v>
+        <v>0.03355326583272632</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4856653293.781138</v>
+        <v>3941870189.426967</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1318189189561221</v>
+        <v>0.106813517106948</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05275688191753526</v>
+        <v>0.05426972382649391</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1745493259.596629</v>
+        <v>2001204899.129872</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139400043607664</v>
+        <v>0.1179512291518468</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02876090887647556</v>
+        <v>0.03393631546789985</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3045155077.041327</v>
+        <v>3056522080.965251</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1149067360727224</v>
+        <v>0.1239957364963772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04561814453602745</v>
+        <v>0.0361168547109092</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1690275287.185016</v>
+        <v>2174276839.494621</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08911551040761793</v>
+        <v>0.1280602404717576</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04622209524886972</v>
+        <v>0.03717483404291722</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4487161144.872383</v>
+        <v>5106612690.747746</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1748667629065804</v>
+        <v>0.1259818927435963</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02281819008608967</v>
+        <v>0.01784106410518315</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2926637643.932075</v>
+        <v>3304805919.10871</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08147174539728694</v>
+        <v>0.08300592289749502</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03239943799206056</v>
+        <v>0.0216404886602467</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2165287159.647605</v>
+        <v>3356092790.259899</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1240230014162222</v>
+        <v>0.09088049423639308</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03523092223435538</v>
+        <v>0.02254912184677995</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3806172372.847198</v>
+        <v>4026419687.575897</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1471369458299517</v>
+        <v>0.1255379498504683</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02279659704121797</v>
+        <v>0.02683643589540246</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11</v>
+      </c>
+      <c r="K100" t="n">
+        <v>146.0524654744402</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3610229256.11126</v>
+        <v>2585129401.768693</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2040295494013852</v>
+        <v>0.1765830036735088</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04129605238386188</v>
+        <v>0.04278828088462626</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
